--- a/public/exports/pass-holders.xlsx
+++ b/public/exports/pass-holders.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhnt/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/cag-backpack/public/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306B5EC7-D5F2-F24E-B723-48800752D5D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="37660" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="37660" windowHeight="20000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,9 +29,6 @@
     <t>Applicant Name</t>
   </si>
   <si>
-    <t>NRIC</t>
-  </si>
-  <si>
     <t>PassExpirydate</t>
   </si>
   <si>
@@ -110,12 +111,15 @@
   </si>
   <si>
     <t>A1,D</t>
+  </si>
+  <si>
+    <t>Pass Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,16 +163,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -294,23 +298,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -346,23 +333,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,11 +508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I13" activeCellId="1" sqref="I15 I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -562,101 +532,101 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/exports/pass-holders.xlsx
+++ b/public/exports/pass-holders.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" activeCellId="1" sqref="I15 I13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/public/exports/pass-holders.xlsx
+++ b/public/exports/pass-holders.xlsx
@@ -116,10 +116,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="D\-MMM\-YY"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -218,10 +217,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -230,15 +237,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,14 +262,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.33"/>
@@ -280,49 +279,49 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -331,30 +330,30 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -366,13 +365,13 @@
       <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
